--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/191.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/191.xlsx
@@ -479,13 +479,13 @@
         <v>-11.16862143093181</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.67296546225243</v>
+        <v>-14.76061842977779</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08976354212196601</v>
+        <v>-0.01642046160261657</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.14092400161157</v>
+        <v>-11.25779898907966</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.01708798777443</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.82954940423948</v>
+        <v>-14.90858763649498</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02358195125704073</v>
+        <v>0.05973746402770397</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.84942387884054</v>
+        <v>-10.95846966920928</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.81033983180549</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.18903785566759</v>
+        <v>-15.27555179284572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01582588029655474</v>
+        <v>0.09246822113201913</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.48173964583351</v>
+        <v>-10.60040827879091</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.55436615199775</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.696403867693</v>
+        <v>-15.79142780171825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1403205880185279</v>
+        <v>0.2282354016007185</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.29390437696326</v>
+        <v>-10.4176659157261</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.23891566655089</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.17939201182712</v>
+        <v>-16.28104065109028</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1328448830959023</v>
+        <v>0.2165832520715823</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.13385097472316</v>
+        <v>-10.26281015771416</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.865587992864658</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.74576503276019</v>
+        <v>-16.86333391227889</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2607435895567243</v>
+        <v>0.3699072106510363</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.986510198542378</v>
+        <v>-10.11439581270036</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.435678685812499</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.32799283243459</v>
+        <v>-17.45912533769732</v>
       </c>
       <c r="F8" t="n">
-        <v>0.41370096365661</v>
+        <v>0.511579019701354</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.781222889984113</v>
+        <v>-9.908584812028424</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.960474976416652</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0501642571842</v>
+        <v>-18.19869643292358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6878145082538286</v>
+        <v>0.7985099287806225</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.817370738130117</v>
+        <v>-9.946932167051839</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.456826139129779</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.53010189475619</v>
+        <v>-18.68872823598655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7336113835941864</v>
+        <v>0.8305860707428514</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.472689681215996</v>
+        <v>-9.596922542881135</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.941275562154847</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.13073747222606</v>
+        <v>-19.30173603964184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.859140383240656</v>
+        <v>0.956062701177954</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.424051776158983</v>
+        <v>-9.553207343692611</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.437719657698995</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.67645083927489</v>
+        <v>-19.8516651282057</v>
       </c>
       <c r="F12" t="n">
-        <v>1.013930679738383</v>
+        <v>1.123526346826472</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.932082312275444</v>
+        <v>-9.062952971481337</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.966473765695429</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.48675964675499</v>
+        <v>-20.67051011713862</v>
       </c>
       <c r="F13" t="n">
-        <v>1.196385012140678</v>
+        <v>1.31404553777927</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.43560909621435</v>
+        <v>-8.5828451339724</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.558991844972023</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.31836963095859</v>
+        <v>-21.50324603938661</v>
       </c>
       <c r="F14" t="n">
-        <v>1.513336571636024</v>
+        <v>1.644364338476019</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.973660282746886</v>
+        <v>-8.140966820761303</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.228802604184827</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.1405400648133</v>
+        <v>-22.33003805614445</v>
       </c>
       <c r="F15" t="n">
-        <v>1.624778253424797</v>
+        <v>1.761173864429899</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.528103032437265</v>
+        <v>-7.713018717773804</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.989761640514703</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.99938203892769</v>
+        <v>-23.18374784754488</v>
       </c>
       <c r="F16" t="n">
-        <v>1.901549535498886</v>
+        <v>2.043391544486146</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.953324753079807</v>
+        <v>-7.12492556642631</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.843088489356346</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.61375144207853</v>
+        <v>-23.79373132924374</v>
       </c>
       <c r="F17" t="n">
-        <v>2.091414111309597</v>
+        <v>2.235455627174267</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.865174278046466</v>
+        <v>-7.042614258460379</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.79012721499793</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.42457084936947</v>
+        <v>-24.60976147306568</v>
       </c>
       <c r="F18" t="n">
-        <v>2.502957558836414</v>
+        <v>2.662500361265688</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.464274872729971</v>
+        <v>-6.641204253333058</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.821040977820878</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.27237601218828</v>
+        <v>-25.46607663273162</v>
       </c>
       <c r="F19" t="n">
-        <v>2.767474445450647</v>
+        <v>2.929347677785749</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.163597045666891</v>
+        <v>-6.332238998571164</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.922062404403298</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.02544527164437</v>
+        <v>-26.21939464594169</v>
       </c>
       <c r="F20" t="n">
-        <v>2.989415163223588</v>
+        <v>3.150895626473437</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.04488913580096</v>
+        <v>-6.234072911863902</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.078415261781426</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.60924414765977</v>
+        <v>-26.80397906012761</v>
       </c>
       <c r="F21" t="n">
-        <v>3.308893537167387</v>
+        <v>3.464142064264575</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.718301641414103</v>
+        <v>-5.89492989905183</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.274088564363854</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.1951508844327</v>
+        <v>-27.3915092424529</v>
       </c>
       <c r="F22" t="n">
-        <v>3.519182105411192</v>
+        <v>3.660683714524567</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.565304990405693</v>
+        <v>-5.765355377827267</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.497456311726679</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.64497622546872</v>
+        <v>-27.83249727907076</v>
       </c>
       <c r="F23" t="n">
-        <v>3.70250052980104</v>
+        <v>3.841697893614271</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.368737155540018</v>
+        <v>-5.561167822707707</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.730774606630719</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.8737380330222</v>
+        <v>-28.06355023962155</v>
       </c>
       <c r="F24" t="n">
-        <v>3.837927310395854</v>
+        <v>3.97866956594441</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.205515416012219</v>
+        <v>-5.400721651382354</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.966629276964981</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.1428895948424</v>
+        <v>-28.32658769601466</v>
       </c>
       <c r="F25" t="n">
-        <v>4.152744824528</v>
+        <v>4.294874864177777</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.914015293241188</v>
+        <v>-5.102740838704669</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.196750664579136</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.10319373262629</v>
+        <v>-28.28556951121153</v>
       </c>
       <c r="F26" t="n">
-        <v>4.309328766515043</v>
+        <v>4.464839139669065</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.915664923399246</v>
+        <v>-5.111617420031359</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.421615387314743</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.99705443348842</v>
+        <v>-28.17323755282953</v>
       </c>
       <c r="F27" t="n">
-        <v>4.265207705938426</v>
+        <v>4.411108328806622</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.737557235540404</v>
+        <v>-4.912522770717231</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.635052540059235</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.94403060697943</v>
+        <v>-28.1259743395709</v>
       </c>
       <c r="F28" t="n">
-        <v>4.249051804231737</v>
+        <v>4.381126955299069</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.657484711360407</v>
+        <v>-4.818794974673314</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.83930200226858</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.73422645394077</v>
+        <v>-27.9048322522713</v>
       </c>
       <c r="F29" t="n">
-        <v>4.238499408141306</v>
+        <v>4.366856345201588</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.54024313941275</v>
+        <v>-4.69406460550019</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.034202728549388</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.59010638425905</v>
+        <v>-27.75576329211541</v>
       </c>
       <c r="F30" t="n">
-        <v>4.144994181245698</v>
+        <v>4.261856076410945</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.494158233409874</v>
+        <v>-4.647010869087026</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.221378321007027</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.14765200972291</v>
+        <v>-27.30665802773568</v>
       </c>
       <c r="F31" t="n">
-        <v>4.001947680396999</v>
+        <v>4.112315793352749</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.590556859233503</v>
+        <v>-4.727463070049433</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.399505843228296</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.77380130207743</v>
+        <v>-26.92554109201303</v>
       </c>
       <c r="F32" t="n">
-        <v>3.918052203787218</v>
+        <v>4.022188380590308</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.671192352435694</v>
+        <v>-4.806501302304933</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.564422849049267</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.35416681139442</v>
+        <v>-26.50578877060445</v>
       </c>
       <c r="F33" t="n">
-        <v>3.785531914423267</v>
+        <v>3.887547138165996</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.619543217725085</v>
+        <v>-4.719908811309757</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.715589998982024</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.8694504832852</v>
+        <v>-26.01609736741537</v>
       </c>
       <c r="F34" t="n">
-        <v>3.658719869098308</v>
+        <v>3.752748788107584</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.44542868223297</v>
+        <v>-4.529638374110952</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.846928014002682</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.46539583298385</v>
+        <v>-25.60361127408395</v>
       </c>
       <c r="F35" t="n">
-        <v>3.418607034981052</v>
+        <v>3.515018753107523</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.456832078008113</v>
+        <v>-4.52598562161811</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.957932615930913</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.77607299606413</v>
+        <v>-24.91519180606031</v>
       </c>
       <c r="F36" t="n">
-        <v>3.206983051847392</v>
+        <v>3.287657821958108</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.728994869481915</v>
+        <v>-4.790554877443711</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.038169073212106</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.30016778776739</v>
+        <v>-24.43139193915001</v>
       </c>
       <c r="F37" t="n">
-        <v>3.075117377625527</v>
+        <v>3.159798392405811</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.727829654529002</v>
+        <v>-4.775826036746769</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.086173057879453</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.88751149449902</v>
+        <v>-24.01205857143236</v>
       </c>
       <c r="F38" t="n">
-        <v>3.003135896601717</v>
+        <v>3.08530318923639</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.869606202002053</v>
+        <v>-4.92366432043554</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.09615146635387</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.38927081755429</v>
+        <v>-23.51006040357206</v>
       </c>
       <c r="F39" t="n">
-        <v>2.974228091927186</v>
+        <v>3.058306860776751</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.744469971440835</v>
+        <v>-4.78842083208051</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.069648004416633</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.00761709741514</v>
+        <v>-23.12453136179175</v>
       </c>
       <c r="F40" t="n">
-        <v>3.057442768789197</v>
+        <v>3.158829561995523</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.734716205823749</v>
+        <v>-4.767682624379216</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.004736340966684</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.47812509358721</v>
+        <v>-22.59260418963526</v>
       </c>
       <c r="F41" t="n">
-        <v>3.078521376364376</v>
+        <v>3.168989189000703</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.662931109342565</v>
+        <v>-4.695373835784363</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.903134790059072</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.80557349660774</v>
+        <v>-21.91057376539839</v>
       </c>
       <c r="F42" t="n">
-        <v>3.175535340421566</v>
+        <v>3.261054262583721</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.689377561082852</v>
+        <v>-4.724451840395836</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.768820165631432</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.14324698814766</v>
+        <v>-21.24638814993478</v>
       </c>
       <c r="F43" t="n">
-        <v>3.293313696785733</v>
+        <v>3.38006329541501</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.72971494613821</v>
+        <v>-4.77280171479033</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.606983045438888</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.85625061755418</v>
+        <v>-20.95360498148526</v>
       </c>
       <c r="F44" t="n">
-        <v>3.202924437966457</v>
+        <v>3.282630377666885</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.783170818640977</v>
+        <v>-4.821046850762091</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.427859714395268</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.37301371966608</v>
+        <v>-20.46259125570917</v>
       </c>
       <c r="F45" t="n">
-        <v>3.326620515215085</v>
+        <v>3.414391313466016</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.733393883236735</v>
+        <v>-4.765496209804647</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.235631361652707</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.04362447247109</v>
+        <v>-20.13720825318375</v>
       </c>
       <c r="F46" t="n">
-        <v>3.355606873706666</v>
+        <v>3.441230534291555</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.716949950867527</v>
+        <v>-4.728327162036987</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.039910700472083</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.50418231848345</v>
+        <v>-19.58773739521935</v>
       </c>
       <c r="F47" t="n">
-        <v>3.364954777935659</v>
+        <v>3.446572193850979</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.989793542089098</v>
+        <v>-4.994441309597911</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.844625028984066</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.03039806324707</v>
+        <v>-19.11087644881516</v>
       </c>
       <c r="F48" t="n">
-        <v>3.296848618553</v>
+        <v>3.372574498189543</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.105830622175317</v>
+        <v>-5.108684744194813</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.661827106640192</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.63823122392601</v>
+        <v>-18.7322339583296</v>
       </c>
       <c r="F49" t="n">
-        <v>3.316513257421272</v>
+        <v>3.390668060716809</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.391923623872715</v>
+        <v>-5.400577636051096</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.49268001065713</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.1254057216156</v>
+        <v>-18.21498325765869</v>
       </c>
       <c r="F50" t="n">
-        <v>3.452201884072921</v>
+        <v>3.54086295891709</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.318790020198833</v>
+        <v>-5.299020642907826</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.342691582661283</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.45900750697174</v>
+        <v>-17.55268293380429</v>
       </c>
       <c r="F51" t="n">
-        <v>3.466865263255654</v>
+        <v>3.561915381886585</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.531906525856449</v>
+        <v>-5.511482533423357</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.212049899750347</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.06780949806096</v>
+        <v>-17.15882718741664</v>
       </c>
       <c r="F52" t="n">
-        <v>3.298943387007676</v>
+        <v>3.385535878002852</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.81437295966669</v>
+        <v>-5.817907881433955</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.103575136849541</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.67572121255695</v>
+        <v>-16.77219839219763</v>
       </c>
       <c r="F53" t="n">
-        <v>3.335654204175876</v>
+        <v>3.416721743371844</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846278901691976</v>
+        <v>-5.845166055950429</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.016888503259428</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.47408665649153</v>
+        <v>-16.58336810831142</v>
       </c>
       <c r="F54" t="n">
-        <v>3.071975224943512</v>
+        <v>3.149429288555164</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.026664650245277</v>
+        <v>-6.016190807971896</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.948019540855928</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.18100236507665</v>
+        <v>-16.29795590636179</v>
       </c>
       <c r="F55" t="n">
-        <v>2.923770356775174</v>
+        <v>3.003528665686969</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.17353410352376</v>
+        <v>-6.151421204024086</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.895214503498903</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.84708318109843</v>
+        <v>-15.97664461002015</v>
       </c>
       <c r="F56" t="n">
-        <v>2.870013361307046</v>
+        <v>2.949981147064309</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.476974406486446</v>
+        <v>-6.473321653993604</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.853638729418928</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.30081993733025</v>
+        <v>-15.42932088972179</v>
       </c>
       <c r="F57" t="n">
-        <v>2.901775288001074</v>
+        <v>2.994861561205746</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.735036787799708</v>
+        <v>-6.729839143571543</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.825180739502272</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.09596467476576</v>
+        <v>-15.23229482425665</v>
       </c>
       <c r="F58" t="n">
-        <v>2.742389593205901</v>
+        <v>2.838748942121005</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709755551012335</v>
+        <v>-6.707673874860501</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.802533292445013</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.74964707999642</v>
+        <v>-14.89108322759559</v>
       </c>
       <c r="F59" t="n">
-        <v>2.863912348182802</v>
+        <v>2.972604646374812</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.82136743273805</v>
+        <v>-6.814860558225712</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.785089747698074</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.69073171720865</v>
+        <v>-14.84151576903681</v>
       </c>
       <c r="F60" t="n">
-        <v>2.682871984487414</v>
+        <v>2.791485728862373</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823527662706935</v>
+        <v>-6.823894247186503</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.768693100386353</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.34746462900144</v>
+        <v>-14.49565640486694</v>
       </c>
       <c r="F61" t="n">
-        <v>2.568419073045045</v>
+        <v>2.67828967849281</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.226417098055371</v>
+        <v>-7.23945703168573</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.755195083291021</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.13547406138821</v>
+        <v>-14.29918021612115</v>
       </c>
       <c r="F62" t="n">
-        <v>2.520344137010226</v>
+        <v>2.635582586623099</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177753008392675</v>
+        <v>-7.175121455521488</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.741182357448959</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.81604805665578</v>
+        <v>-13.98114199548994</v>
       </c>
       <c r="F63" t="n">
-        <v>2.448126994535265</v>
+        <v>2.562737013611736</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.374294658652667</v>
+        <v>-7.384899423954465</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.726012633220777</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.62548958879445</v>
+        <v>-13.79982669343488</v>
       </c>
       <c r="F64" t="n">
-        <v>2.35813050480124</v>
+        <v>2.477218091449581</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.400453079730435</v>
+        <v>-7.383564009064609</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.709228648460545</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.43459072105925</v>
+        <v>-13.61259367049535</v>
       </c>
       <c r="F65" t="n">
-        <v>2.124982775795782</v>
+        <v>2.216812187927649</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741167168883515</v>
+        <v>-7.743039368189882</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.690794709240635</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.21791310902868</v>
+        <v>-13.39929387259795</v>
       </c>
       <c r="F66" t="n">
-        <v>2.05836913893708</v>
+        <v>2.150591320154199</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.789490858672326</v>
+        <v>-7.778702801130743</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.672265034814612</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.04756915675498</v>
+        <v>-13.23074356581357</v>
       </c>
       <c r="F67" t="n">
-        <v>2.320922180125055</v>
+        <v>2.450117024567208</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.861249770547826</v>
+        <v>-7.869105152252862</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.65033217828276</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.99547488374775</v>
+        <v>-13.18533945955846</v>
       </c>
       <c r="F68" t="n">
-        <v>2.038913976914275</v>
+        <v>2.143076338323048</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.767587436018118</v>
+        <v>-7.756877932293586</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.62583510216627</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.85470644359352</v>
+        <v>-13.04597189580829</v>
       </c>
       <c r="F69" t="n">
-        <v>2.088298143233266</v>
+        <v>2.220504217329016</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.839922409218654</v>
+        <v>-7.829173628585598</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.595349854241551</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.82768393052819</v>
+        <v>-13.03171437801365</v>
       </c>
       <c r="F70" t="n">
-        <v>2.089581188911755</v>
+        <v>2.213827142879736</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.750698365352291</v>
+        <v>-7.734581740554127</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.562200335637356</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.52390322769162</v>
+        <v>-12.72162318520737</v>
       </c>
       <c r="F71" t="n">
-        <v>2.044124713445282</v>
+        <v>2.171120051010025</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.467564224097123</v>
+        <v>-7.427305392858816</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.521200460530602</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.45664806799368</v>
+        <v>-12.65243036468885</v>
       </c>
       <c r="F72" t="n">
-        <v>2.05525317086075</v>
+        <v>2.175204849496644</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.529019493636185</v>
+        <v>-7.498946474008741</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.472953458702254</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.15695216364372</v>
+        <v>-12.30534032405185</v>
       </c>
       <c r="F73" t="n">
-        <v>2.03121570284334</v>
+        <v>2.151612519775854</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.271205866076916</v>
+        <v>-7.216571686318393</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.415403745351654</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.35845579668073</v>
+        <v>-12.50787824901335</v>
       </c>
       <c r="F74" t="n">
-        <v>2.056352924299455</v>
+        <v>2.172926788802183</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.216951363100803</v>
+        <v>-7.172712471798611</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.350191259608189</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.49101536295321</v>
+        <v>-12.64113170733644</v>
       </c>
       <c r="F75" t="n">
-        <v>1.988325318733846</v>
+        <v>2.104951552447942</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.141709898669403</v>
+        <v>-7.107002203835988</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.277616360093945</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.75400045013496</v>
+        <v>-12.89118159931057</v>
       </c>
       <c r="F76" t="n">
-        <v>1.971200586616868</v>
+        <v>2.080338023105497</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.803300054816468</v>
+        <v>-6.743834815309348</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.196799172605702</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.33163285151191</v>
+        <v>-13.4627522644718</v>
       </c>
       <c r="F77" t="n">
-        <v>1.963057174249315</v>
+        <v>2.075336763419958</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.740051139788089</v>
+        <v>-6.699307893344637</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.109263551942621</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.82589346839275</v>
+        <v>-13.95085949901703</v>
       </c>
       <c r="F78" t="n">
-        <v>2.012336602145572</v>
+        <v>2.128308220717581</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.74726499865388</v>
+        <v>-6.731528050638126</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.015274879089493</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.31481242571417</v>
+        <v>-14.43865251829406</v>
       </c>
       <c r="F79" t="n">
-        <v>2.058133477485929</v>
+        <v>2.171696112335061</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646362620652697</v>
+        <v>-6.643508498633201</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.920292988055713</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.86375959156491</v>
+        <v>-14.98598933089526</v>
       </c>
       <c r="F80" t="n">
-        <v>1.952897547244135</v>
+        <v>2.050487572626361</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.29936422613559</v>
+        <v>-6.282606078498181</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.823536182053838</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.6365065821921</v>
+        <v>-15.75673319918767</v>
       </c>
       <c r="F81" t="n">
-        <v>2.04957111142744</v>
+        <v>2.15310504229981</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.238000602716419</v>
+        <v>-6.23064272851937</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.730227080535324</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.36697852694337</v>
+        <v>-16.48308106854379</v>
       </c>
       <c r="F82" t="n">
-        <v>2.02446007457701</v>
+        <v>2.117860563049883</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.138211070456784</v>
+        <v>-6.128287104902755</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.642513668169098</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.24312852541452</v>
+        <v>-17.36052720499628</v>
       </c>
       <c r="F83" t="n">
-        <v>2.004140820566651</v>
+        <v>2.101573738314777</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.844904209893595</v>
+        <v>-5.829193446483523</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.56874818601828</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.29781825773829</v>
+        <v>-18.4124413691176</v>
       </c>
       <c r="F84" t="n">
-        <v>2.020401460696075</v>
+        <v>2.106051305886647</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729403914223887</v>
+        <v>-5.726274853844715</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.511655032270422</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.09774486906491</v>
+        <v>-19.21027321198954</v>
       </c>
       <c r="F85" t="n">
-        <v>2.044910251615786</v>
+        <v>2.13626834084535</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.588124874258821</v>
+        <v>-5.596477763471842</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.476320744190818</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.2428369525108</v>
+        <v>-20.36534163020083</v>
       </c>
       <c r="F86" t="n">
-        <v>2.033048625241182</v>
+        <v>2.123123668792258</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252137106431605</v>
+        <v>-5.253747459681137</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.466980343887061</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.30843257310172</v>
+        <v>-21.43202391192762</v>
       </c>
       <c r="F87" t="n">
-        <v>1.866933486785362</v>
+        <v>1.924199219415072</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.895974099925289</v>
+        <v>-4.882999627809139</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.487978882798919</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.65150646012019</v>
+        <v>-22.77175926172145</v>
       </c>
       <c r="F88" t="n">
-        <v>1.958893821945646</v>
+        <v>2.023072290475787</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661778986692493</v>
+        <v>-4.662093201960695</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.54286896714203</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.03672446998618</v>
+        <v>-24.14283758451836</v>
       </c>
       <c r="F89" t="n">
-        <v>1.821529380530256</v>
+        <v>1.897726583069101</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.279418282199884</v>
+        <v>-4.272322254059667</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.629920953344356</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.50681987917507</v>
+        <v>-25.60969919490535</v>
       </c>
       <c r="F90" t="n">
-        <v>1.610586197144365</v>
+        <v>1.675995342141629</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.161757756561292</v>
+        <v>-4.167780215868485</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.75059488284364</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.15071560858788</v>
+        <v>-27.25185364804021</v>
       </c>
       <c r="F91" t="n">
-        <v>1.407681687703295</v>
+        <v>1.466544681279695</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063565485248346</v>
+        <v>-4.059323579127627</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.90072017672666</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.74977020076777</v>
+        <v>-28.83324672368662</v>
       </c>
       <c r="F92" t="n">
-        <v>1.286787363262796</v>
+        <v>1.339366051475168</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.794924523238969</v>
+        <v>-3.786754926265731</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.080528084571576</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60090399186227</v>
+        <v>-30.67707500979543</v>
       </c>
       <c r="F93" t="n">
-        <v>1.148755214402478</v>
+        <v>1.198741626652188</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.788181987275479</v>
+        <v>-3.771594039575012</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.278817381319435</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.68154585177221</v>
+        <v>-32.74720375052347</v>
       </c>
       <c r="F94" t="n">
-        <v>1.036148317660792</v>
+        <v>1.082429608206294</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.78431975793717</v>
+        <v>-3.760570320582279</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.492077312518298</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.71521252908605</v>
+        <v>-34.77077626234634</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6316092521542986</v>
+        <v>0.6790295730470305</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.770507378439149</v>
+        <v>-3.743707434522136</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.714409783579904</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.68794762897449</v>
+        <v>-36.73561670362122</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4053087975350635</v>
+        <v>0.4621032072624712</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.981974253938709</v>
+        <v>-3.961209861631731</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.94056619689787</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.77856582364983</v>
+        <v>-38.81870682416257</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02593313809036726</v>
+        <v>0.07369385885698396</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.982864530531946</v>
+        <v>-3.94731892831666</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.16869325082112</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.0067448442832</v>
+        <v>-41.02667132920831</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1860836141285447</v>
+        <v>-0.1294986812466046</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.183333871644455</v>
+        <v>-4.146727792898989</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.388425083265616</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38776340829087</v>
+        <v>-43.40024037289903</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1066787973934761</v>
+        <v>-0.05076157195646405</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.511845934549046</v>
+        <v>-4.476784747538904</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.608169330184396</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79641982359742</v>
+        <v>-45.79584376227238</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3698209922093283</v>
+        <v>-0.3344063130224593</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.697874465627132</v>
+        <v>-4.652706020823177</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.810339244755437</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19525701177268</v>
+        <v>-48.19396087379135</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3099367990112733</v>
+        <v>-0.2595968945848365</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.978691269279315</v>
+        <v>-4.920260321696691</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.021979279278659</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41475583562197</v>
+        <v>-50.40098273303248</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4555755758226341</v>
+        <v>-0.408980070008931</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.335260137173724</v>
+        <v>-5.283322971800597</v>
       </c>
     </row>
   </sheetData>
